--- a/03_プログラム設計書/クラス設計.xlsx
+++ b/03_プログラム設計書/クラス設計.xlsx
@@ -4,13 +4,175 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14805" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソース名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大項目</t>
+    <rPh sb="0" eb="3">
+      <t>ダイコウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中項目</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォーム</t>
+  </si>
+  <si>
+    <t>作業編集フォーム</t>
+  </si>
+  <si>
+    <t>ユーザ登録確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録完了画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業リスト画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダメニュー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USerRegistForm.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskRegistForm.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskList.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseRegistConfirm.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseRegistcomplete.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Header.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクコントローラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★ページ遷移のみ</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,14 +516,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/03_プログラム設計書/クラス設計.xlsx
+++ b/03_プログラム設計書/クラス設計.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="B2:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/03_プログラム設計書/クラス設計.xlsx
+++ b/03_プログラム設計書/クラス設計.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>JSP</t>
     <phoneticPr fontId="1"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB20"/>
+  <dimension ref="B2:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,36 +681,91 @@
         <v>29</v>
       </c>
     </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="Q16" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q17" t="s">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q18" t="s">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q19" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q20" t="s">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="Q30" t="s">
         <v>23</v>
       </c>
     </row>
